--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/167.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/167.xlsx
@@ -479,13 +479,13 @@
         <v>-9.833770413058248</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.27704113201579</v>
+        <v>-14.14596099596443</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.053906907992357</v>
+        <v>-1.121895236649441</v>
       </c>
       <c r="G2" t="n">
-        <v>-11.75276659031396</v>
+        <v>-11.42213357434901</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-9.219078237273697</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.55055243068229</v>
+        <v>-14.42282392415841</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.9013030260691981</v>
+        <v>-0.9727739072821807</v>
       </c>
       <c r="G3" t="n">
-        <v>-11.66473394600619</v>
+        <v>-11.34424746474358</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-8.479011624146533</v>
       </c>
       <c r="E4" t="n">
-        <v>-15.00734287683012</v>
+        <v>-14.89862439403242</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.7574578947471537</v>
+        <v>-0.8220815015739136</v>
       </c>
       <c r="G4" t="n">
-        <v>-11.28759707034743</v>
+        <v>-10.96855074239741</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-7.714194365187254</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.60432570180714</v>
+        <v>-15.49249125093312</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.6778174165609341</v>
+        <v>-0.7591075249052113</v>
       </c>
       <c r="G5" t="n">
-        <v>-11.24443174787826</v>
+        <v>-10.92202069809791</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-6.932829852601335</v>
       </c>
       <c r="E6" t="n">
-        <v>-16.17386706002791</v>
+        <v>-16.07220532846191</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.4946168228966612</v>
+        <v>-0.5783682841751828</v>
       </c>
       <c r="G6" t="n">
-        <v>-10.86112839758105</v>
+        <v>-10.53270798079635</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-6.181310816215528</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.8573769144859</v>
+        <v>-16.77146522323849</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.4093990236998662</v>
+        <v>-0.4930326542528123</v>
       </c>
       <c r="G7" t="n">
-        <v>-10.71525395931853</v>
+        <v>-10.38366520524614</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-5.490319093471125</v>
       </c>
       <c r="E8" t="n">
-        <v>-17.50975327278627</v>
+        <v>-17.43225993226609</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.2526579740787218</v>
+        <v>-0.3508764299973507</v>
       </c>
       <c r="G8" t="n">
-        <v>-10.29945551336816</v>
+        <v>-9.955573086927378</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-4.904237513853301</v>
       </c>
       <c r="E9" t="n">
-        <v>-18.2774597268194</v>
+        <v>-18.20034606308164</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.2962684348445113</v>
+        <v>-0.3852044480483565</v>
       </c>
       <c r="G9" t="n">
-        <v>-10.1412350335259</v>
+        <v>-9.788750964118105</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-4.461733426127332</v>
       </c>
       <c r="E10" t="n">
-        <v>-18.82436449342683</v>
+        <v>-18.77003143663366</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1063253052167495</v>
+        <v>-0.1989009786105945</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.843633897630621</v>
+        <v>-9.493388612008765</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-4.201952208159646</v>
       </c>
       <c r="E11" t="n">
-        <v>-19.45850327386867</v>
+        <v>-19.41118769139867</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1178672886449677</v>
+        <v>0.01380966565892892</v>
       </c>
       <c r="G11" t="n">
-        <v>-9.488531367654485</v>
+        <v>-9.151234369543095</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-4.150940358203557</v>
       </c>
       <c r="E12" t="n">
-        <v>-20.05776415954016</v>
+        <v>-20.01026528483037</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.07063568767020421</v>
+        <v>-0.17034666611279</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.964891623196809</v>
+        <v>-8.636274821869485</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-4.316862012763913</v>
       </c>
       <c r="E13" t="n">
-        <v>-20.81354352568448</v>
+        <v>-20.78807899665732</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1371260661251468</v>
+        <v>0.04159153228907164</v>
       </c>
       <c r="G13" t="n">
-        <v>-8.336186148434281</v>
+        <v>-8.006116101491525</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-4.693009531329566</v>
       </c>
       <c r="E14" t="n">
-        <v>-21.60527435543218</v>
+        <v>-21.5754108126502</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3656391199246335</v>
+        <v>0.2726706774455367</v>
       </c>
       <c r="G14" t="n">
-        <v>-8.038859950898683</v>
+        <v>-7.708632796321826</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-5.258861876653289</v>
       </c>
       <c r="E15" t="n">
-        <v>-22.47133018841236</v>
+        <v>-22.4302072651865</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5421364545339427</v>
+        <v>0.4360233400017529</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.351291482559755</v>
+        <v>-7.037822475620307</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-5.980219446048104</v>
       </c>
       <c r="E16" t="n">
-        <v>-23.52892641196699</v>
+        <v>-23.46841378823253</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8158572300459096</v>
+        <v>0.7146930059878922</v>
       </c>
       <c r="G16" t="n">
-        <v>-6.982271834662863</v>
+        <v>-6.66041066160187</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-6.815435279920002</v>
       </c>
       <c r="E17" t="n">
-        <v>-24.19520679588527</v>
+        <v>-24.14972413581311</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9498569496309759</v>
+        <v>0.8483654180019155</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.842642424855855</v>
+        <v>-6.506759395451373</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-7.717136519877584</v>
       </c>
       <c r="E18" t="n">
-        <v>-25.09324712470778</v>
+        <v>-25.05234677063023</v>
       </c>
       <c r="F18" t="n">
-        <v>1.270461261619164</v>
+        <v>1.15066669061737</v>
       </c>
       <c r="G18" t="n">
-        <v>-6.301066225505014</v>
+        <v>-5.975002423231826</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-8.633107127016194</v>
       </c>
       <c r="E19" t="n">
-        <v>-25.8858289541402</v>
+        <v>-25.84983821362829</v>
       </c>
       <c r="F19" t="n">
-        <v>1.36926887116567</v>
+        <v>1.250272930637222</v>
       </c>
       <c r="G19" t="n">
-        <v>-6.208686936653795</v>
+        <v>-5.865053263967011</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-9.506912634979241</v>
       </c>
       <c r="E20" t="n">
-        <v>-26.64715945668941</v>
+        <v>-26.60457019554527</v>
       </c>
       <c r="F20" t="n">
-        <v>1.512603402676888</v>
+        <v>1.396710337921928</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.900402481639671</v>
+        <v>-5.549672780812672</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-10.28489430881842</v>
       </c>
       <c r="E21" t="n">
-        <v>-27.2924528791524</v>
+        <v>-27.24300325131921</v>
       </c>
       <c r="F21" t="n">
-        <v>1.771542968280546</v>
+        <v>1.648161106300119</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.650326405059862</v>
+        <v>-5.295027490541099</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-10.92203466679754</v>
       </c>
       <c r="E22" t="n">
-        <v>-27.86819998892015</v>
+        <v>-27.83070363358145</v>
       </c>
       <c r="F22" t="n">
-        <v>1.892201631269893</v>
+        <v>1.772930752381769</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.959367030284927</v>
+        <v>-4.645282685111918</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-11.38645495990927</v>
       </c>
       <c r="E23" t="n">
-        <v>-28.27699405285021</v>
+        <v>-28.23631626792096</v>
       </c>
       <c r="F23" t="n">
-        <v>2.079631038752043</v>
+        <v>1.953971116077157</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.977984284925861</v>
+        <v>-4.650414867825875</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-11.66133641908462</v>
       </c>
       <c r="E24" t="n">
-        <v>-28.57219929732544</v>
+        <v>-28.54220483151505</v>
       </c>
       <c r="F24" t="n">
-        <v>1.959286591030897</v>
+        <v>1.844886048799895</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.673653705369939</v>
+        <v>-4.366678480639988</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-11.7458885019823</v>
       </c>
       <c r="E25" t="n">
-        <v>-28.86702486501827</v>
+        <v>-28.83422864639975</v>
       </c>
       <c r="F25" t="n">
-        <v>2.255015527619806</v>
+        <v>2.146218491005062</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.387455965249807</v>
+        <v>-4.109480191314279</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-11.65569655020763</v>
       </c>
       <c r="E26" t="n">
-        <v>-28.89548753139618</v>
+        <v>-28.87147624798446</v>
       </c>
       <c r="F26" t="n">
-        <v>2.151979104255422</v>
+        <v>2.057059908652908</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.494485540980918</v>
+        <v>-4.223775995122548</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-11.41571915437625</v>
       </c>
       <c r="E27" t="n">
-        <v>-29.0433389073878</v>
+        <v>-29.00476898321607</v>
       </c>
       <c r="F27" t="n">
-        <v>2.111183488600603</v>
+        <v>2.000789191039169</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.175805797510463</v>
+        <v>-3.918830077333064</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-11.05861358606077</v>
       </c>
       <c r="E28" t="n">
-        <v>-28.85047619422633</v>
+        <v>-28.81942125188576</v>
       </c>
       <c r="F28" t="n">
-        <v>2.310683999302825</v>
+        <v>2.197068995242326</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.222767887803735</v>
+        <v>-3.979905670089716</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-10.61842407144683</v>
       </c>
       <c r="E29" t="n">
-        <v>-28.84814576432051</v>
+        <v>-28.82544371119295</v>
       </c>
       <c r="F29" t="n">
-        <v>2.172743496562399</v>
+        <v>2.072901595091396</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.146871808230249</v>
+        <v>-3.919903646166086</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-10.13047735455564</v>
       </c>
       <c r="E30" t="n">
-        <v>-28.66350501734364</v>
+        <v>-28.63441392042933</v>
       </c>
       <c r="F30" t="n">
-        <v>2.234355873735562</v>
+        <v>2.129067574282401</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.127259538573343</v>
+        <v>-3.902176668118388</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-9.628260594563011</v>
       </c>
       <c r="E31" t="n">
-        <v>-28.2448000801624</v>
+        <v>-28.22313231895934</v>
       </c>
       <c r="F31" t="n">
-        <v>2.112492718884776</v>
+        <v>2.012519894385356</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.408233449859626</v>
+        <v>-4.203914971711649</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-9.140047928150102</v>
       </c>
       <c r="E32" t="n">
-        <v>-28.11881284991647</v>
+        <v>-28.1145840360986</v>
       </c>
       <c r="F32" t="n">
-        <v>2.100002661973769</v>
+        <v>1.986832796209889</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.644641162272674</v>
+        <v>-4.426719781472143</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-8.688122278168494</v>
       </c>
       <c r="E33" t="n">
-        <v>-27.54358943226239</v>
+        <v>-27.53551148140905</v>
       </c>
       <c r="F33" t="n">
-        <v>2.029513703473916</v>
+        <v>1.929148109889244</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.910742217530756</v>
+        <v>-4.72053724184616</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-8.285592825161128</v>
       </c>
       <c r="E34" t="n">
-        <v>-26.97929808748116</v>
+        <v>-26.95964654091573</v>
       </c>
       <c r="F34" t="n">
-        <v>2.104715890996791</v>
+        <v>2.002962513310896</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.796943921230473</v>
+        <v>-4.617173510910733</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-7.940019645810811</v>
       </c>
       <c r="E35" t="n">
-        <v>-26.75198952554311</v>
+        <v>-26.72153682913326</v>
       </c>
       <c r="F35" t="n">
-        <v>1.904560765152483</v>
+        <v>1.799403388727739</v>
       </c>
       <c r="G35" t="n">
-        <v>-5.106642344951504</v>
+        <v>-4.920626906176259</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-7.653526661261732</v>
       </c>
       <c r="E36" t="n">
-        <v>-25.87057642132959</v>
+        <v>-25.83661498775815</v>
       </c>
       <c r="F36" t="n">
-        <v>1.828049347345435</v>
+        <v>1.721975509721771</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.331122969475738</v>
+        <v>-5.127878060160783</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-7.424213573471302</v>
       </c>
       <c r="E37" t="n">
-        <v>-25.38364749404011</v>
+        <v>-25.32859436059065</v>
       </c>
       <c r="F37" t="n">
-        <v>1.708019114892491</v>
+        <v>1.605663491275876</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.578096170282059</v>
+        <v>-5.359297605191133</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-7.247260818260983</v>
       </c>
       <c r="E38" t="n">
-        <v>-24.91660577476722</v>
+        <v>-24.88534135558118</v>
       </c>
       <c r="F38" t="n">
-        <v>1.699037795143067</v>
+        <v>1.597860478782208</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.740584740850721</v>
+        <v>-5.510003103202242</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-7.115426442058698</v>
       </c>
       <c r="E39" t="n">
-        <v>-24.45425109991166</v>
+        <v>-24.40836257845141</v>
       </c>
       <c r="F39" t="n">
-        <v>1.590188389316956</v>
+        <v>1.498647007847608</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.855090021504457</v>
+        <v>-5.630085704866553</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-7.019894738531728</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.98631910404553</v>
+        <v>-23.94369056599287</v>
       </c>
       <c r="F40" t="n">
-        <v>1.593487649633071</v>
+        <v>1.480527260714659</v>
       </c>
       <c r="G40" t="n">
-        <v>-5.96888831780474</v>
+        <v>-5.733829112584391</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-6.951909394024595</v>
       </c>
       <c r="E41" t="n">
-        <v>-23.18131267921632</v>
+        <v>-23.14225833983945</v>
       </c>
       <c r="F41" t="n">
-        <v>1.666961653180838</v>
+        <v>1.573718272342065</v>
       </c>
       <c r="G41" t="n">
-        <v>-6.081717783694736</v>
+        <v>-5.837127382005609</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-6.903818923508678</v>
       </c>
       <c r="E42" t="n">
-        <v>-22.78047873541403</v>
+        <v>-22.73194556877975</v>
       </c>
       <c r="F42" t="n">
-        <v>1.789243761722559</v>
+        <v>1.683955462269398</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.139219177775597</v>
+        <v>-5.899760958800427</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-6.86791882961855</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.9624454692573</v>
+        <v>-21.89591038621565</v>
       </c>
       <c r="F43" t="n">
-        <v>1.97295495519766</v>
+        <v>1.882513327167016</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.131612549824554</v>
+        <v>-5.869229708573521</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-6.838219735232761</v>
       </c>
       <c r="E44" t="n">
-        <v>-21.70612436422199</v>
+        <v>-21.62902379278707</v>
       </c>
       <c r="F44" t="n">
-        <v>1.936139399606726</v>
+        <v>1.847740170819391</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.312050667589222</v>
+        <v>-6.057837423311427</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-6.809763145091356</v>
       </c>
       <c r="E45" t="n">
-        <v>-21.16207371963407</v>
+        <v>-21.08244633375069</v>
       </c>
       <c r="F45" t="n">
-        <v>2.004219374383701</v>
+        <v>1.907938579285648</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.411656907609074</v>
+        <v>-6.167982967118869</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-6.78226747009326</v>
       </c>
       <c r="E46" t="n">
-        <v>-20.67992348288182</v>
+        <v>-20.57721436708848</v>
       </c>
       <c r="F46" t="n">
-        <v>2.158158671196717</v>
+        <v>2.071592364807224</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.352911744758249</v>
+        <v>-6.098502115937828</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-6.759439447037142</v>
       </c>
       <c r="E47" t="n">
-        <v>-20.14980304851749</v>
+        <v>-20.03400162988242</v>
       </c>
       <c r="F47" t="n">
-        <v>2.034960101456074</v>
+        <v>1.954809023459027</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.729708220543126</v>
+        <v>-6.475730637716482</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-6.746624815203616</v>
       </c>
       <c r="E48" t="n">
-        <v>-19.69950638457916</v>
+        <v>-19.5737286311787</v>
       </c>
       <c r="F48" t="n">
-        <v>2.074132271558518</v>
+        <v>1.986256734884853</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.768998221371145</v>
+        <v>-6.505476349772883</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-6.749915484508421</v>
       </c>
       <c r="E49" t="n">
-        <v>-19.01813057548437</v>
+        <v>-18.90777555483146</v>
       </c>
       <c r="F49" t="n">
-        <v>2.085103621339885</v>
+        <v>2.005973742964493</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.219386531429364</v>
+        <v>-6.961245596299051</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-6.772751790657394</v>
       </c>
       <c r="E50" t="n">
-        <v>-18.48029877474626</v>
+        <v>-18.3580035739017</v>
       </c>
       <c r="F50" t="n">
-        <v>2.066564920516001</v>
+        <v>1.993248024602335</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.210090996411739</v>
+        <v>-6.9481140165488</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-6.817274046897605</v>
       </c>
       <c r="E51" t="n">
-        <v>-17.64497057653562</v>
+        <v>-17.51644343953839</v>
       </c>
       <c r="F51" t="n">
-        <v>2.095498909796215</v>
+        <v>2.027576042653341</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.595240361409636</v>
+        <v>-7.315313834350691</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-6.883545726146406</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.32087061968869</v>
+        <v>-17.17582099650521</v>
       </c>
       <c r="F52" t="n">
-        <v>1.990603379428306</v>
+        <v>1.915453561116799</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.512313715210143</v>
+        <v>-7.233945172189364</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-6.968547549134724</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.78378508021256</v>
+        <v>-16.60938251405793</v>
       </c>
       <c r="F53" t="n">
-        <v>2.092173464874417</v>
+        <v>2.038678315463125</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.615611984631362</v>
+        <v>-7.347822022306697</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-7.066773005263097</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.43720563938639</v>
+        <v>-16.2804514974624</v>
       </c>
       <c r="F54" t="n">
-        <v>1.835564329176586</v>
+        <v>1.78052428802997</v>
       </c>
       <c r="G54" t="n">
-        <v>-8.016301913102389</v>
+        <v>-7.726320497460997</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-7.171082023391017</v>
       </c>
       <c r="E55" t="n">
-        <v>-15.86297723674828</v>
+        <v>-15.69112766964778</v>
       </c>
       <c r="F55" t="n">
-        <v>1.916055807047518</v>
+        <v>1.84886610886378</v>
       </c>
       <c r="G55" t="n">
-        <v>-8.154962492499109</v>
+        <v>-7.873910027395776</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-7.274274713810414</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.47197561238013</v>
+        <v>-15.29882990729831</v>
       </c>
       <c r="F56" t="n">
-        <v>1.748945653575726</v>
+        <v>1.707835822652707</v>
       </c>
       <c r="G56" t="n">
-        <v>-8.364688091720719</v>
+        <v>-8.091988515830407</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-7.37039742859293</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.81906246966325</v>
+        <v>-14.62626521801599</v>
       </c>
       <c r="F57" t="n">
-        <v>1.655833195765371</v>
+        <v>1.611973981245588</v>
       </c>
       <c r="G57" t="n">
-        <v>-8.671401470393835</v>
+        <v>-8.410013644158774</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-7.455811391729532</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.60917976280754</v>
+        <v>-14.41367240447205</v>
       </c>
       <c r="F58" t="n">
-        <v>1.534258071577102</v>
+        <v>1.491184395227824</v>
       </c>
       <c r="G58" t="n">
-        <v>-8.71429185450333</v>
+        <v>-8.456111642464492</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-7.52722772743417</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.12014297476055</v>
+        <v>-13.92669110797121</v>
       </c>
       <c r="F59" t="n">
-        <v>1.590685896824942</v>
+        <v>1.541877791830987</v>
       </c>
       <c r="G59" t="n">
-        <v>-8.877709978573755</v>
+        <v>-8.624373918586356</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-7.582747255836295</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.98976982306264</v>
+        <v>-13.79650124851308</v>
       </c>
       <c r="F60" t="n">
-        <v>1.450676810235523</v>
+        <v>1.413232824108187</v>
       </c>
       <c r="G60" t="n">
-        <v>-8.792204148714442</v>
+        <v>-8.532348121911863</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-7.621068570412822</v>
       </c>
       <c r="E61" t="n">
-        <v>-13.70400412893629</v>
+        <v>-13.50003914296503</v>
       </c>
       <c r="F61" t="n">
-        <v>1.370682839872577</v>
+        <v>1.342665311791283</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.99895779519098</v>
+        <v>-8.763387990159803</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-7.643189174740335</v>
       </c>
       <c r="E62" t="n">
-        <v>-13.39273462887425</v>
+        <v>-13.18027273835872</v>
       </c>
       <c r="F62" t="n">
-        <v>1.367723979430347</v>
+        <v>1.342900973242434</v>
       </c>
       <c r="G62" t="n">
-        <v>-9.30531768168737</v>
+        <v>-9.059876280313532</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-7.653579896115589</v>
       </c>
       <c r="E63" t="n">
-        <v>-12.95834511288862</v>
+        <v>-12.7603502170132</v>
       </c>
       <c r="F63" t="n">
-        <v>1.31708295203855</v>
+        <v>1.293582268437652</v>
       </c>
       <c r="G63" t="n">
-        <v>-9.292159917331436</v>
+        <v>-9.039491564788964</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-7.656750054445582</v>
       </c>
       <c r="E64" t="n">
-        <v>-12.70398785327957</v>
+        <v>-12.48789939487688</v>
       </c>
       <c r="F64" t="n">
-        <v>1.257198758840495</v>
+        <v>1.233684982936755</v>
       </c>
       <c r="G64" t="n">
-        <v>-9.487667275666931</v>
+        <v>-9.227719602744459</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-7.657226806004276</v>
       </c>
       <c r="E65" t="n">
-        <v>-12.46221229670141</v>
+        <v>-12.24527283861401</v>
       </c>
       <c r="F65" t="n">
-        <v>1.250718068933841</v>
+        <v>1.235308428489129</v>
       </c>
       <c r="G65" t="n">
-        <v>-9.658966966048075</v>
+        <v>-9.408576674200063</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-7.657129836923863</v>
       </c>
       <c r="E66" t="n">
-        <v>-12.25236886675422</v>
+        <v>-12.02523050475312</v>
       </c>
       <c r="F66" t="n">
-        <v>1.05683415615072</v>
+        <v>1.042262423087879</v>
       </c>
       <c r="G66" t="n">
-        <v>-9.67880180485329</v>
+        <v>-9.42356736095384</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-7.658598736933534</v>
       </c>
       <c r="E67" t="n">
-        <v>-12.0660130281051</v>
+        <v>-11.83876992768126</v>
       </c>
       <c r="F67" t="n">
-        <v>1.026368367438023</v>
+        <v>1.011508603712664</v>
       </c>
       <c r="G67" t="n">
-        <v>-9.730974631677569</v>
+        <v>-9.492472150809844</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-7.664150320572531</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.94644102625161</v>
+        <v>-11.70516297718144</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9305588952422716</v>
+        <v>0.9243531436952935</v>
       </c>
       <c r="G68" t="n">
-        <v>-9.665735686617246</v>
+        <v>-9.421106008019596</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-7.676049960210718</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.77686951984558</v>
+        <v>-11.533391963898</v>
       </c>
       <c r="F69" t="n">
-        <v>0.7261356786715608</v>
+        <v>0.7038002100235762</v>
       </c>
       <c r="G69" t="n">
-        <v>-9.619048534683651</v>
+        <v>-9.371800395517655</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-7.695330967859833</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.66570277641648</v>
+        <v>-11.4228536510053</v>
       </c>
       <c r="F70" t="n">
-        <v>0.8638012430523104</v>
+        <v>0.8360979302392181</v>
       </c>
       <c r="G70" t="n">
-        <v>-9.555760342746748</v>
+        <v>-9.305291497081686</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-7.720753958980501</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.49260944054602</v>
+        <v>-11.25487940554596</v>
       </c>
       <c r="F71" t="n">
-        <v>0.7695628471975662</v>
+        <v>0.745577748391524</v>
       </c>
       <c r="G71" t="n">
-        <v>-9.201168412581438</v>
+        <v>-8.964878530893968</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-7.750139310758121</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.42870591037555</v>
+        <v>-11.1971292577111</v>
       </c>
       <c r="F72" t="n">
-        <v>0.8034064500434281</v>
+        <v>0.7766065061264148</v>
       </c>
       <c r="G72" t="n">
-        <v>-9.055712928009862</v>
+        <v>-8.811358187771887</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-7.781498539676136</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.42496151176282</v>
+        <v>-11.19392164351488</v>
       </c>
       <c r="F73" t="n">
-        <v>0.6314259599145144</v>
+        <v>0.5995723871005949</v>
       </c>
       <c r="G73" t="n">
-        <v>-9.020062587371843</v>
+        <v>-8.777383661897607</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-7.814023739704049</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.54535832869533</v>
+        <v>-11.31933281243577</v>
       </c>
       <c r="F74" t="n">
-        <v>0.7298277080729276</v>
+        <v>0.7035907331781086</v>
       </c>
       <c r="G74" t="n">
-        <v>-8.793382455970198</v>
+        <v>-8.553060145007473</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-7.846286360495733</v>
       </c>
       <c r="E75" t="n">
-        <v>-11.59876183198673</v>
+        <v>-11.37585228380351</v>
       </c>
       <c r="F75" t="n">
-        <v>0.5679675680406682</v>
+        <v>0.5253259376851664</v>
       </c>
       <c r="G75" t="n">
-        <v>-8.621820919532219</v>
+        <v>-8.384418192103199</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-7.876734840936324</v>
       </c>
       <c r="E76" t="n">
-        <v>-11.96691738789607</v>
+        <v>-11.74238439416047</v>
       </c>
       <c r="F76" t="n">
-        <v>0.67561248200534</v>
+        <v>0.6347644971391546</v>
       </c>
       <c r="G76" t="n">
-        <v>-8.368013536642517</v>
+        <v>-8.142289143348318</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-7.903176853990454</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.35481613649073</v>
+        <v>-12.12642091341682</v>
       </c>
       <c r="F77" t="n">
-        <v>0.5805623633744087</v>
+        <v>0.5403035321361011</v>
       </c>
       <c r="G77" t="n">
-        <v>-8.182482513072417</v>
+        <v>-7.964469486151994</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-7.924223721397567</v>
       </c>
       <c r="E78" t="n">
-        <v>-12.91703889742297</v>
+        <v>-12.67526334084482</v>
       </c>
       <c r="F78" t="n">
-        <v>0.559706324947539</v>
+        <v>0.5000708855034768</v>
       </c>
       <c r="G78" t="n">
-        <v>-7.947122184886708</v>
+        <v>-7.716056132033084</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-7.940662702748393</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.32921077548619</v>
+        <v>-13.10160109058279</v>
       </c>
       <c r="F79" t="n">
-        <v>0.4443893215176158</v>
+        <v>0.3975843388584452</v>
       </c>
       <c r="G79" t="n">
-        <v>-7.907478691881961</v>
+        <v>-7.676595931268122</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-7.951809816163237</v>
       </c>
       <c r="E80" t="n">
-        <v>-13.84478566139337</v>
+        <v>-13.61254130128399</v>
       </c>
       <c r="F80" t="n">
-        <v>0.6929990601791521</v>
+        <v>0.6240680857174644</v>
       </c>
       <c r="G80" t="n">
-        <v>-7.620115736808915</v>
+        <v>-7.376847657706803</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-7.956850649777831</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.70281591273157</v>
+        <v>-14.4646145548292</v>
       </c>
       <c r="F81" t="n">
-        <v>0.516213694907325</v>
+        <v>0.4608856230981907</v>
       </c>
       <c r="G81" t="n">
-        <v>-7.591037732197442</v>
+        <v>-7.345020269498567</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-7.952839097306421</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.36684442056107</v>
+        <v>-15.138711043544</v>
       </c>
       <c r="F82" t="n">
-        <v>0.6098629371341916</v>
+        <v>0.5436420693607412</v>
       </c>
       <c r="G82" t="n">
-        <v>-7.438826619359535</v>
+        <v>-7.194210033064725</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-7.937436910713599</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.12906519970352</v>
+        <v>-15.89023541126475</v>
       </c>
       <c r="F83" t="n">
-        <v>0.4765832942054203</v>
+        <v>0.4042483210048837</v>
       </c>
       <c r="G83" t="n">
-        <v>-7.19606914006825</v>
+        <v>-6.937090297556066</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-7.908423886152768</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.21390650547179</v>
+        <v>-16.97443519419377</v>
       </c>
       <c r="F84" t="n">
-        <v>0.4927522882149519</v>
+        <v>0.404955305358337</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.984641541477216</v>
+        <v>-6.72723377530604</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-7.862967895529218</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.03434875535139</v>
+        <v>-17.78717917000245</v>
       </c>
       <c r="F85" t="n">
-        <v>0.545370253335849</v>
+        <v>0.4541692717403852</v>
       </c>
       <c r="G85" t="n">
-        <v>-6.737118463951543</v>
+        <v>-6.47123997784177</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-7.798312907941845</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.05840249902552</v>
+        <v>-18.80504025443244</v>
       </c>
       <c r="F86" t="n">
-        <v>0.515545987462397</v>
+        <v>0.4132165484514661</v>
       </c>
       <c r="G86" t="n">
-        <v>-6.435759837140692</v>
+        <v>-6.181978638856674</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-7.711532305401792</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.07994252055404</v>
+        <v>-19.8261220453615</v>
       </c>
       <c r="F87" t="n">
-        <v>0.5534220195835106</v>
+        <v>0.4503201347049178</v>
       </c>
       <c r="G87" t="n">
-        <v>-6.048646626716535</v>
+        <v>-5.786001939408669</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-7.601565019937059</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.39743404781978</v>
+        <v>-21.13731617496036</v>
       </c>
       <c r="F88" t="n">
-        <v>0.6636984864193692</v>
+        <v>0.561094109048762</v>
       </c>
       <c r="G88" t="n">
-        <v>-5.874230968259061</v>
+        <v>-5.592916657098893</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-7.469732224484667</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.95875662320982</v>
+        <v>-22.68651527791896</v>
       </c>
       <c r="F89" t="n">
-        <v>0.4877903054379378</v>
+        <v>0.3820830522938415</v>
       </c>
       <c r="G89" t="n">
-        <v>-5.512791763707529</v>
+        <v>-5.243614017281641</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-7.319220470451846</v>
       </c>
       <c r="E90" t="n">
-        <v>-24.46858717152335</v>
+        <v>-24.20916319071455</v>
       </c>
       <c r="F90" t="n">
-        <v>0.3068677724681252</v>
+        <v>0.1968924285976263</v>
       </c>
       <c r="G90" t="n">
-        <v>-5.282576710538618</v>
+        <v>-5.004587844300248</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-7.154183499224274</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.88383892410826</v>
+        <v>-25.63426035503643</v>
       </c>
       <c r="F91" t="n">
-        <v>0.2622492043835228</v>
+        <v>0.1553374593779877</v>
       </c>
       <c r="G91" t="n">
-        <v>-5.303917164170632</v>
+        <v>-5.033548018186146</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-6.979042368687537</v>
       </c>
       <c r="E92" t="n">
-        <v>-27.59141561454322</v>
+        <v>-27.32968738843427</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1026016635315151</v>
+        <v>-0.00649649604858821</v>
       </c>
       <c r="G92" t="n">
-        <v>-5.006355305183882</v>
+        <v>-4.744352140715259</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-6.798417238544826</v>
       </c>
       <c r="E93" t="n">
-        <v>-29.53767807808569</v>
+        <v>-29.28791621677408</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1218473487088524</v>
+        <v>0.004082084647526454</v>
       </c>
       <c r="G93" t="n">
-        <v>-5.04745204380406</v>
+        <v>-4.769790485136733</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-6.619830004127203</v>
       </c>
       <c r="E94" t="n">
-        <v>-31.68350651384459</v>
+        <v>-31.41042726117187</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1196609341342842</v>
+        <v>0.008795313670547839</v>
       </c>
       <c r="G94" t="n">
-        <v>-5.105856806781</v>
+        <v>-4.826126664264681</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-6.452141320077921</v>
       </c>
       <c r="E95" t="n">
-        <v>-33.85426269421414</v>
+        <v>-33.58386736362397</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.2495550983052327</v>
+        <v>-0.3713789762474937</v>
       </c>
       <c r="G95" t="n">
-        <v>-5.24981976882862</v>
+        <v>-4.972537886943703</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-6.312572298014446</v>
       </c>
       <c r="E96" t="n">
-        <v>-35.9386096758283</v>
+        <v>-35.68111026353724</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.3710254840707671</v>
+        <v>-0.4792988285718417</v>
       </c>
       <c r="G96" t="n">
-        <v>-5.369221570745161</v>
+        <v>-5.115086880284417</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-6.210905483672317</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.23146467249979</v>
+        <v>-37.97785367415271</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.6642799754225893</v>
+        <v>-0.7771618105239515</v>
       </c>
       <c r="G97" t="n">
-        <v>-5.570476450028174</v>
+        <v>-5.296664028396315</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-6.180955608439783</v>
       </c>
       <c r="E98" t="n">
-        <v>-40.68188553387144</v>
+        <v>-40.42447776770027</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.9530568992025412</v>
+        <v>-1.053697431146889</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.822123602948992</v>
+        <v>-5.566548759175657</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-6.226091382399077</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.0546166701803</v>
+        <v>-42.79870142653309</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.8343097124280858</v>
+        <v>-0.9384720738368584</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.199456863150378</v>
+        <v>-5.939037867325605</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-6.400278579384101</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.59583265175933</v>
+        <v>-45.33073970382006</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.9694353700575405</v>
+        <v>-1.08494875803009</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.384608209938068</v>
+        <v>-6.125760290454302</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-6.665245285757599</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.06738448991754</v>
+        <v>-47.79443616027324</v>
       </c>
       <c r="F101" t="n">
-        <v>-1.112586609328973</v>
+        <v>-1.249479727842061</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.750236951398952</v>
+        <v>-6.511839208953962</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-7.113807615995396</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.40928325303413</v>
+        <v>-50.13087543310483</v>
       </c>
       <c r="F102" t="n">
-        <v>-1.202190329977747</v>
+        <v>-1.329774821170367</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.035518230320164</v>
+        <v>-6.817256449645748</v>
       </c>
     </row>
   </sheetData>
